--- a/ripple/chess13a_analysis/085_ver1.xlsx
+++ b/ripple/chess13a_analysis/085_ver1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="361" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="361"/>
   </bookViews>
   <sheets>
-    <sheet name="085_ver0.dat" sheetId="3" r:id="rId1"/>
+    <sheet name="final version" sheetId="3" r:id="rId1"/>
     <sheet name="cleaned up" sheetId="2" r:id="rId2"/>
     <sheet name="everything" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -482,18 +482,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.5" style="3"/>
-    <col min="1026" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="2.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.42578125" style="3"/>
+    <col min="1026" max="16384" width="9.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1495,23 +1495,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.5"/>
-    <col min="2" max="2" width="3.1640625"/>
-    <col min="3" max="3" width="6.1640625"/>
-    <col min="4" max="4" width="7.5"/>
-    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="1026" width="11.5"/>
+    <col min="1" max="1" width="2.42578125"/>
+    <col min="2" max="2" width="3.140625"/>
+    <col min="3" max="3" width="6.140625"/>
+    <col min="4" max="4" width="7.42578125"/>
+    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="1026" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>2.3472626340651014E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="13.5">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1.4873362573583125E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.5">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1658,15 +1658,15 @@
         <v>289.98778998778994</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J3:J58" si="3">F4*$G4*$H4/3600*20</f>
+        <f t="shared" ref="J4:J58" si="3">F4*$G4*$H4/3600*20</f>
         <v>12.146251919325721</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" ref="K3:K58" si="4">J4/I4</f>
+        <f t="shared" ref="K4:K58" si="4">J4/I4</f>
         <v>4.1885390829169547E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="13.5">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0.32444284226152503</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.5">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>9.0166963466743202E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.5">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>2.9666277299332317E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="13.5">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>3.131121455425747E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="13.5">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>2.6967994498529685E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="13.5">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>5.9761430466719674E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0.12171612389003689</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.5">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0.22086305214969312</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.39223227027636814</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.57735026918962584</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>3.6214298417007414E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1.8219500746971082E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.5">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>1.5982110049512804E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.5">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0.11111111111111112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.5">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.1011443474848347</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.5">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0.12016835362522194</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.5">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0.18107149208503706</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.5">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.33806170189140666</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.5">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>5.3074489243427538E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="13.5">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>2.3011318599566608E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="13.5">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>3.0513909884867668E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.5">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>1.4445046333914651E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="13.5">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>9.3968197146987911E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.5">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>9.5782628522115137E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="13.5">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.5">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>0.43643578047198467</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.5">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>0.35355339059327379</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.5">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>0.63245553203367577</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="13.5">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>6.8120270329017157E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.5">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>5.2522573143889029E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.5">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>7.9430147078953767E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.5">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>3.9223227027636816E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.5">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>8.9442719099991588E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="13.5">
+    <row r="39" spans="1:11">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0.18731716231633877</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.5">
+    <row r="40" spans="1:11">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>0.16012815380508716</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.5">
+    <row r="41" spans="1:11">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>0.19900743804199786</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.5">
+    <row r="42" spans="1:11">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0.15665208999759148</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.5">
+    <row r="43" spans="1:11">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>8.1513914593922251E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.5">
+    <row r="44" spans="1:11">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0.14002800840280097</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.5">
+    <row r="45" spans="1:11">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="13.5">
+    <row r="46" spans="1:11">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0.26037782196164772</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="13.5">
+    <row r="47" spans="1:11">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>0.30860669992418377</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="13.5">
+    <row r="48" spans="1:11">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="13.5">
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>0.10540925533894599</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="13.5">
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.16329931618554519</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="13.5">
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>0.1348399724926484</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5">
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>0.10540925533894596</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.5">
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.15811388300841897</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.5">
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.15384615384615383</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.5">
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="13.5">
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="13.5">
+    <row r="57" spans="1:11">
       <c r="A57" s="16">
         <v>9</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.5">
+    <row r="58" spans="1:11">
       <c r="A58" s="16">
         <v>9</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.15339299776947407</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="13.5">
+    <row r="59" spans="1:11">
       <c r="J59" s="8"/>
     </row>
   </sheetData>
@@ -3850,29 +3850,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" customWidth="1"/>
-    <col min="16" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="16" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5">
+    <row r="1" spans="1:23">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.5">
+    <row r="2" spans="1:23">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="13.5">
+    <row r="3" spans="1:23">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.5">
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5">
+    <row r="5" spans="1:23">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.5">
+    <row r="6" spans="1:23">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.5">
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.5">
+    <row r="8" spans="1:23">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5">
+    <row r="9" spans="1:23">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.5">
+    <row r="10" spans="1:23">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5">
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.5">
+    <row r="12" spans="1:23">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.5">
+    <row r="13" spans="1:23">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="W13" s="14"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5">
+    <row r="14" spans="1:23">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="W14" s="14"/>
     </row>
-    <row r="15" spans="1:23" ht="13.5">
+    <row r="15" spans="1:23">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.5">
+    <row r="16" spans="1:23">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.5">
+    <row r="17" spans="1:24">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5">
+    <row r="18" spans="1:24">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="W18" s="14"/>
     </row>
-    <row r="19" spans="1:24" ht="13.5">
+    <row r="19" spans="1:24">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5">
+    <row r="20" spans="1:24">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.5">
+    <row r="21" spans="1:24">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5">
+    <row r="22" spans="1:24">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="13.5">
+    <row r="23" spans="1:24">
       <c r="A23" s="3">
         <v>3</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="1"/>
     </row>
-    <row r="24" spans="1:24" ht="13.5">
+    <row r="24" spans="1:24">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="13.5">
+    <row r="25" spans="1:24">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="13.5">
+    <row r="26" spans="1:24">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="13.5">
+    <row r="27" spans="1:24">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="13.5">
+    <row r="28" spans="1:24">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5">
+    <row r="29" spans="1:24">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5">
+    <row r="30" spans="1:24">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -6141,7 +6141,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5">
+    <row r="31" spans="1:24">
       <c r="A31" s="3">
         <v>4</v>
       </c>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5">
+    <row r="32" spans="1:24">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" ht="13.5">
+    <row r="33" spans="1:23">
       <c r="A33" s="3">
         <v>4</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="13.5">
+    <row r="34" spans="1:23">
       <c r="A34" s="3">
         <v>5</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="13.5">
+    <row r="35" spans="1:23">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" ht="13.5">
+    <row r="36" spans="1:23">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" ht="13.5">
+    <row r="37" spans="1:23">
       <c r="A37" s="3">
         <v>5</v>
       </c>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" ht="13.5">
+    <row r="38" spans="1:23">
       <c r="A38" s="3">
         <v>5</v>
       </c>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" ht="13.5">
+    <row r="39" spans="1:23">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" ht="13.5">
+    <row r="40" spans="1:23">
       <c r="A40" s="3">
         <v>6</v>
       </c>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" ht="13.5">
+    <row r="41" spans="1:23">
       <c r="A41" s="3">
         <v>6</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" ht="13.5">
+    <row r="42" spans="1:23">
       <c r="A42" s="3">
         <v>6</v>
       </c>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" ht="13.5">
+    <row r="43" spans="1:23">
       <c r="A43" s="3">
         <v>6</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="13.5">
+    <row r="44" spans="1:23">
       <c r="A44" s="3">
         <v>6</v>
       </c>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="13.5">
+    <row r="45" spans="1:23">
       <c r="A45" s="3">
         <v>6</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="13.5">
+    <row r="46" spans="1:23">
       <c r="A46" s="3">
         <v>6</v>
       </c>
@@ -7160,7 +7160,7 @@
       </c>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="13.5">
+    <row r="47" spans="1:23">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="13.5">
+    <row r="48" spans="1:23">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" spans="1:23" ht="13.5">
+    <row r="49" spans="1:23">
       <c r="A49" s="3">
         <v>7</v>
       </c>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" spans="1:23" ht="13.5">
+    <row r="50" spans="1:23">
       <c r="A50" s="3">
         <v>7</v>
       </c>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" spans="1:23" ht="13.5">
+    <row r="51" spans="1:23">
       <c r="A51" s="3">
         <v>7</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" spans="1:23" ht="13.5">
+    <row r="52" spans="1:23">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" spans="1:23" ht="13.5">
+    <row r="53" spans="1:23">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -7608,7 +7608,7 @@
       </c>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" spans="1:23" ht="13.5">
+    <row r="54" spans="1:23">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" spans="1:23" ht="13.5">
+    <row r="55" spans="1:23">
       <c r="A55" s="3">
         <v>9</v>
       </c>
@@ -7733,7 +7733,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" spans="1:23" ht="13.5">
+    <row r="56" spans="1:23">
       <c r="A56" s="3">
         <v>9</v>
       </c>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" spans="1:23" ht="13.5">
+    <row r="57" spans="1:23">
       <c r="A57" s="3">
         <v>9</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" ht="13.5">
+    <row r="58" spans="1:23">
       <c r="A58" s="3">
         <v>9</v>
       </c>

--- a/ripple/chess13a_analysis/085_ver1.xlsx
+++ b/ripple/chess13a_analysis/085_ver1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="1"/>
+    <workbookView xWindow="345" yWindow="285" windowWidth="16380" windowHeight="8190" tabRatio="382" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="everything" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="final version" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>h</t>
   </si>
@@ -4519,8 +4518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4584,9 +4583,8 @@
       <c r="D2" s="3">
         <v>726</v>
       </c>
-      <c r="E2" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E2" s="2">
+        <v>63</v>
       </c>
       <c r="F2" s="7">
         <v>1.9607843137254901</v>
@@ -4601,13 +4599,13 @@
         <f>D2*$F2*$G2*$H2</f>
         <v>53060.703277309156</v>
       </c>
-      <c r="J2" s="8" t="e">
+      <c r="J2" s="8">
         <f>E2*$F2*$G2*$H2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K2" s="6" t="e">
+        <v>4604.4411934855052</v>
+      </c>
+      <c r="K2" s="6">
         <f>J2/I2</f>
-        <v>#REF!</v>
+        <v>8.6776859504132234E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5">
@@ -4624,7 +4622,7 @@
         <v>180818</v>
       </c>
       <c r="E3" s="2">
-        <v>1246</v>
+        <v>10759</v>
       </c>
       <c r="F3" s="7">
         <v>1.4084507042253522</v>
@@ -4641,11 +4639,11 @@
       </c>
       <c r="J3" s="8">
         <f>E3*$F3*$G3*$H3</f>
-        <v>490.48031780426152</v>
+        <v>4235.2148790176961</v>
       </c>
       <c r="K3" s="6">
         <f>J3/I3</f>
-        <v>6.8909068787399485E-3</v>
+        <v>5.9501819509119667E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5">
@@ -4661,9 +4659,8 @@
       <c r="D4" s="3">
         <v>228</v>
       </c>
-      <c r="E4" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E4" s="2">
+        <v>28</v>
       </c>
       <c r="F4" s="7">
         <v>1.7857142857142856</v>
@@ -4678,13 +4675,13 @@
         <f t="shared" ref="I4:I58" si="0">D4*$F4*$G4*$H4</f>
         <v>13230.238929057508</v>
       </c>
-      <c r="J4" s="8" t="e">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J58" si="1">E4*$F4*$G4*$H4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="6" t="e">
+        <v>1624.7661842702207</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" ref="K4:K58" si="2">J4/I4</f>
-        <v>#REF!</v>
+        <v>0.12280701754385968</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="13.5">
@@ -4700,9 +4697,8 @@
       <c r="D5" s="3">
         <v>3.8</v>
       </c>
-      <c r="E5" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E5" s="2">
+        <v>0.2</v>
       </c>
       <c r="F5" s="7">
         <v>1.6949152542372883</v>
@@ -4717,13 +4713,13 @@
         <f t="shared" si="0"/>
         <v>549.44831569353391</v>
       </c>
-      <c r="J5" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J5" s="8">
+        <f t="shared" si="1"/>
+        <v>28.91833240492284</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.2631578947368425E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5">
@@ -4739,9 +4735,8 @@
       <c r="D6" s="3">
         <v>49.2</v>
       </c>
-      <c r="E6" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E6" s="2">
+        <v>3.5</v>
       </c>
       <c r="F6" s="7">
         <v>1.4492753623188408</v>
@@ -4756,13 +4751,13 @@
         <f t="shared" si="0"/>
         <v>2299.5202473395966</v>
       </c>
-      <c r="J6" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
+        <v>163.58375743269488</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.113821138211382E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5">
@@ -4778,9 +4773,8 @@
       <c r="D7" s="3">
         <v>1818</v>
       </c>
-      <c r="E7" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E7" s="2">
+        <v>20</v>
       </c>
       <c r="F7" s="7">
         <v>1.4285714285714286</v>
@@ -4795,13 +4789,13 @@
         <f t="shared" si="0"/>
         <v>41160.614328566735</v>
       </c>
-      <c r="J7" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
+        <v>452.81203881811587</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1001100110011E-2</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="13.5">
@@ -4817,9 +4811,8 @@
       <c r="D8" s="3">
         <v>10200</v>
       </c>
-      <c r="E8" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E8" s="2">
+        <v>174</v>
       </c>
       <c r="F8" s="7">
         <v>1.1904761904761905</v>
@@ -4834,13 +4827,13 @@
         <f t="shared" si="0"/>
         <v>5882.5396825396829</v>
       </c>
-      <c r="J8" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
+        <v>100.34920634920634</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7058823529411762E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="13.5">
@@ -4856,9 +4849,8 @@
       <c r="D9" s="3">
         <v>550</v>
       </c>
-      <c r="E9" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E9" s="2">
+        <v>10</v>
       </c>
       <c r="F9" s="7">
         <v>1.4084507042253522</v>
@@ -4873,13 +4865,13 @@
         <f t="shared" si="0"/>
         <v>11102.841354784179</v>
       </c>
-      <c r="J9" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
+        <v>201.86984281425782</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8181818181818184E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="13.5">
@@ -4895,9 +4887,8 @@
       <c r="D10" s="3">
         <v>112</v>
       </c>
-      <c r="E10" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E10" s="2">
+        <v>3</v>
       </c>
       <c r="F10" s="7">
         <v>1.3888888888888888</v>
@@ -4912,13 +4903,13 @@
         <f t="shared" si="0"/>
         <v>4323.9568755797391</v>
       </c>
-      <c r="J10" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
+        <v>115.8202734530287</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6785714285714281E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="13.5">
@@ -4934,9 +4925,8 @@
       <c r="D11" s="3">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E11" s="2">
+        <v>0.2</v>
       </c>
       <c r="F11" s="7">
         <v>1.3888888888888888</v>
@@ -4951,13 +4941,13 @@
         <f t="shared" si="0"/>
         <v>1523.9895475243468</v>
       </c>
-      <c r="J11" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
+        <v>11.288811463143311</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>7.4074074074074086E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="13.5">
@@ -4973,9 +4963,8 @@
       <c r="D12" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E12" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E12" s="2">
+        <v>0.4</v>
       </c>
       <c r="F12" s="7">
         <v>1.3888888888888888</v>
@@ -4990,13 +4979,13 @@
         <f t="shared" si="0"/>
         <v>605.38344692678356</v>
       </c>
-      <c r="J12" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
+        <v>29.530899850087014</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8780487804878064E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="13.5">
@@ -5012,9 +5001,8 @@
       <c r="D13" s="3">
         <v>2.6</v>
       </c>
-      <c r="E13" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E13" s="2">
+        <v>0.7</v>
       </c>
       <c r="F13" s="7">
         <v>1.3888888888888888</v>
@@ -5029,13 +5017,13 @@
         <f t="shared" si="0"/>
         <v>225.77645755025671</v>
       </c>
-      <c r="J13" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
+        <v>60.785969340453725</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.26923076923076922</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="13.5">
@@ -5051,9 +5039,8 @@
       <c r="D14" s="3">
         <v>1.2</v>
       </c>
-      <c r="E14" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E14" s="2">
+        <v>0.2</v>
       </c>
       <c r="F14" s="7">
         <v>1.3698630136986301</v>
@@ -5068,13 +5055,13 @@
         <f t="shared" si="0"/>
         <v>120.53566892083519</v>
       </c>
-      <c r="J14" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J14" s="8">
+        <f t="shared" si="1"/>
+        <v>20.089278153472531</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="13.5">
@@ -5090,9 +5077,8 @@
       <c r="D15" s="3">
         <v>305</v>
       </c>
-      <c r="E15" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E15" s="2">
+        <v>15</v>
       </c>
       <c r="F15" s="7">
         <v>1.2987012987012987</v>
@@ -5107,13 +5093,13 @@
         <f t="shared" si="0"/>
         <v>7845.5380114582067</v>
       </c>
-      <c r="J15" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
+        <v>385.8461317110594</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>4.9180327868852465E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5">
@@ -5129,9 +5115,8 @@
       <c r="D16" s="3">
         <v>1205</v>
       </c>
-      <c r="E16" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E16" s="2">
+        <v>22</v>
       </c>
       <c r="F16" s="7">
         <v>1.2987012987012987</v>
@@ -5146,13 +5131,13 @@
         <f t="shared" si="0"/>
         <v>14985.931981683396</v>
       </c>
-      <c r="J16" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
+        <v>273.60207767388766</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8257261410788379E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5">
@@ -5168,9 +5153,8 @@
       <c r="D17" s="3">
         <v>1566</v>
       </c>
-      <c r="E17" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E17" s="2">
+        <v>110</v>
       </c>
       <c r="F17" s="7">
         <v>1.1363636363636365</v>
@@ -5185,13 +5169,13 @@
         <f t="shared" si="0"/>
         <v>1234.3230174081239</v>
       </c>
-      <c r="J17" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J17" s="8">
+        <f t="shared" si="1"/>
+        <v>86.702127659574487</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0242656449553006E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5">
@@ -5236,9 +5220,8 @@
       <c r="D19" s="3">
         <v>32.4</v>
       </c>
-      <c r="E19" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E19" s="2">
+        <v>1.6</v>
       </c>
       <c r="F19" s="7">
         <v>1.2820512820512819</v>
@@ -5253,13 +5236,13 @@
         <f t="shared" si="0"/>
         <v>737.61509073506477</v>
       </c>
-      <c r="J19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
+        <v>36.425436579509373</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>4.938271604938272E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5">
@@ -5275,9 +5258,8 @@
       <c r="D20" s="3">
         <v>39.1</v>
       </c>
-      <c r="E20" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E20" s="2">
+        <v>0.9</v>
       </c>
       <c r="F20" s="7">
         <v>1.2820512820512819</v>
@@ -5292,13 +5274,13 @@
         <f t="shared" si="0"/>
         <v>1311.9986937982035</v>
       </c>
-      <c r="J20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
+        <v>30.199458425022588</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3017902813299233E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="13.5">
@@ -5314,9 +5296,8 @@
       <c r="D21" s="3">
         <v>27.7</v>
       </c>
-      <c r="E21" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E21" s="2">
+        <v>0.7</v>
       </c>
       <c r="F21" s="7">
         <v>1.2658227848101264</v>
@@ -5331,13 +5312,13 @@
         <f t="shared" si="0"/>
         <v>1199.2758655234204</v>
       </c>
-      <c r="J21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
+        <v>30.306610320086431</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5270758122743677E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5">
@@ -5353,9 +5334,8 @@
       <c r="D22" s="3">
         <v>12.2</v>
       </c>
-      <c r="E22" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E22" s="2">
+        <v>0.3</v>
       </c>
       <c r="F22" s="7">
         <v>1.2658227848101264</v>
@@ -5370,13 +5350,13 @@
         <f t="shared" si="0"/>
         <v>649.18549161302462</v>
       </c>
-      <c r="J22" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J22" s="8">
+        <f t="shared" si="1"/>
+        <v>15.963577662615362</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4590163934426233E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5">
@@ -5392,9 +5372,8 @@
       <c r="D23" s="3">
         <v>3.5</v>
       </c>
-      <c r="E23" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E23" s="2">
+        <v>0.5</v>
       </c>
       <c r="F23" s="7">
         <v>1.2658227848101264</v>
@@ -5409,13 +5388,13 @@
         <f t="shared" si="0"/>
         <v>219.80618473908842</v>
       </c>
-      <c r="J23" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>31.40088353415549</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="13.5">
@@ -5431,9 +5410,8 @@
       <c r="D24" s="3">
         <v>142</v>
       </c>
-      <c r="E24" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E24" s="2">
+        <v>8</v>
       </c>
       <c r="F24" s="7">
         <v>1.2345679012345678</v>
@@ -5448,13 +5426,13 @@
         <f t="shared" si="0"/>
         <v>3771.0850021113624</v>
       </c>
-      <c r="J24" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
+        <v>212.45549307669648</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6338028169014086E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="13.5">
@@ -5470,9 +5448,8 @@
       <c r="D25" s="3">
         <v>755.4</v>
       </c>
-      <c r="E25" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E25" s="2">
+        <v>19</v>
       </c>
       <c r="F25" s="7">
         <v>1.2195121951219512</v>
@@ -5487,13 +5464,13 @@
         <f t="shared" si="0"/>
         <v>13041.667312539106</v>
       </c>
-      <c r="J25" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J25" s="8">
+        <f t="shared" si="1"/>
+        <v>328.02711005856906</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5152237225311101E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="13.5">
@@ -5509,9 +5486,8 @@
       <c r="D26" s="3">
         <v>429.6</v>
       </c>
-      <c r="E26" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E26" s="2">
+        <v>34</v>
       </c>
       <c r="F26" s="7">
         <v>1.2195121951219512</v>
@@ -5526,13 +5502,13 @@
         <f t="shared" si="0"/>
         <v>3632.0145254632293</v>
       </c>
-      <c r="J26" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J26" s="8">
+        <f t="shared" si="1"/>
+        <v>287.44993916608428</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="2"/>
+        <v>7.9143389199255121E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="13.5">
@@ -5548,9 +5524,8 @@
       <c r="D27" s="3">
         <v>1917</v>
       </c>
-      <c r="E27" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E27" s="2">
+        <v>23</v>
       </c>
       <c r="F27" s="7">
         <v>1.0989010989010988</v>
@@ -5565,13 +5540,13 @@
         <f t="shared" si="0"/>
         <v>1870.4200683597801</v>
       </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J27" s="8">
+        <f t="shared" si="1"/>
+        <v>22.441138013706283</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1997913406364111E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="13.5">
@@ -5587,9 +5562,8 @@
       <c r="D28" s="3">
         <v>45.3</v>
       </c>
-      <c r="E28" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E28" s="2">
+        <v>7.2</v>
       </c>
       <c r="F28" s="7">
         <v>1.2195121951219512</v>
@@ -5604,13 +5578,13 @@
         <f t="shared" si="0"/>
         <v>369.35161797255063</v>
       </c>
-      <c r="J28" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J28" s="8">
+        <f t="shared" si="1"/>
+        <v>58.704892922789519</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.15894039735099341</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="13.5">
@@ -5626,9 +5600,8 @@
       <c r="D29" s="3">
         <v>43.6</v>
       </c>
-      <c r="E29" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E29" s="2">
+        <v>2.4</v>
       </c>
       <c r="F29" s="7">
         <v>1.2195121951219512</v>
@@ -5643,13 +5616,13 @@
         <f t="shared" si="0"/>
         <v>693.11801579504277</v>
       </c>
-      <c r="J29" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J29" s="8">
+        <f t="shared" si="1"/>
+        <v>38.153285273121625</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5045871559633038E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="13.5">
@@ -5692,9 +5665,8 @@
       <c r="D31" s="3">
         <v>2.1</v>
       </c>
-      <c r="E31" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E31" s="2">
+        <v>0.4</v>
       </c>
       <c r="F31" s="7">
         <v>1.2048192771084338</v>
@@ -5709,13 +5681,13 @@
         <f t="shared" si="0"/>
         <v>65.060885050784762</v>
       </c>
-      <c r="J31" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J31" s="8">
+        <f t="shared" si="1"/>
+        <v>12.392549533482812</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19047619047619049</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="13.5">
@@ -5731,9 +5703,8 @@
       <c r="D32" s="3">
         <v>3.2</v>
       </c>
-      <c r="E32" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E32" s="2">
+        <v>0.3</v>
       </c>
       <c r="F32" s="7">
         <v>1.2048192771084338</v>
@@ -5748,13 +5719,13 @@
         <f t="shared" si="0"/>
         <v>121.8420779610819</v>
       </c>
-      <c r="J32" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J32" s="8">
+        <f t="shared" si="1"/>
+        <v>11.422694808851427</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3749999999999986E-2</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="13.5">
@@ -5770,9 +5741,8 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E33" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F33" s="7">
         <v>1.2048192771084338</v>
@@ -5787,13 +5757,13 @@
         <f t="shared" si="0"/>
         <v>45.125708073231728</v>
       </c>
-      <c r="J33" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J33" s="8">
+        <f t="shared" si="1"/>
+        <v>49.638278880554907</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5">
@@ -5809,9 +5779,8 @@
       <c r="D34" s="3">
         <v>86.2</v>
       </c>
-      <c r="E34" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E34" s="2">
+        <v>6.8</v>
       </c>
       <c r="F34" s="7">
         <v>1.1904761904761905</v>
@@ -5826,13 +5795,13 @@
         <f t="shared" si="0"/>
         <v>1731.240032712386</v>
       </c>
-      <c r="J34" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J34" s="8">
+        <f t="shared" si="1"/>
+        <v>136.57113947151072</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="2"/>
+        <v>7.8886310904872387E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="13.5">
@@ -5848,9 +5817,8 @@
       <c r="D35" s="3">
         <v>145</v>
       </c>
-      <c r="E35" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E35" s="2">
+        <v>4</v>
       </c>
       <c r="F35" s="7">
         <v>1.1904761904761905</v>
@@ -5865,13 +5833,13 @@
         <f t="shared" si="0"/>
         <v>1893.7329797040327</v>
       </c>
-      <c r="J35" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J35" s="8">
+        <f t="shared" si="1"/>
+        <v>52.240909784938829</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7586206896551724E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="13.5">
@@ -5887,9 +5855,8 @@
       <c r="D36" s="3">
         <v>63.4</v>
       </c>
-      <c r="E36" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E36" s="2">
+        <v>3.4</v>
       </c>
       <c r="F36" s="7">
         <v>1.1904761904761905</v>
@@ -5904,13 +5871,13 @@
         <f t="shared" si="0"/>
         <v>398.8338707103772</v>
       </c>
-      <c r="J36" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J36" s="8">
+        <f t="shared" si="1"/>
+        <v>21.388567198979221</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3627760252365937E-2</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="13.5">
@@ -5926,9 +5893,8 @@
       <c r="D37" s="3">
         <v>260</v>
       </c>
-      <c r="E37" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E37" s="2">
+        <v>4</v>
       </c>
       <c r="F37" s="7">
         <v>1.075268817204301</v>
@@ -5943,13 +5909,13 @@
         <f t="shared" si="0"/>
         <v>304.00481569349358</v>
       </c>
-      <c r="J37" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K37" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J37" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6769971645152859</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5384615384615385E-2</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="13.5">
@@ -5965,9 +5931,8 @@
       <c r="D38" s="3">
         <v>50</v>
       </c>
-      <c r="E38" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E38" s="2">
+        <v>2.8</v>
       </c>
       <c r="F38" s="7">
         <v>1.1904761904761905</v>
@@ -5982,13 +5947,13 @@
         <f t="shared" si="0"/>
         <v>288.70436423005356</v>
       </c>
-      <c r="J38" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J38" s="8">
+        <f t="shared" si="1"/>
+        <v>16.167444396882999</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5">
@@ -6004,9 +5969,8 @@
       <c r="D39" s="3">
         <v>11.4</v>
       </c>
-      <c r="E39" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E39" s="2">
+        <v>0.8</v>
       </c>
       <c r="F39" s="7">
         <v>1.1627906976744187</v>
@@ -6021,13 +5985,13 @@
         <f t="shared" si="0"/>
         <v>248.26708636259417</v>
       </c>
-      <c r="J39" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J39" s="8">
+        <f t="shared" si="1"/>
+        <v>17.422251674568013</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0175438596491238E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="13.5">
@@ -6043,9 +6007,8 @@
       <c r="D40" s="3">
         <v>15.6</v>
       </c>
-      <c r="E40" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E40" s="2">
+        <v>0.9</v>
       </c>
       <c r="F40" s="7">
         <v>1.1627906976744187</v>
@@ -6060,13 +6023,13 @@
         <f t="shared" si="0"/>
         <v>251.06300663642611</v>
       </c>
-      <c r="J40" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J40" s="8">
+        <f t="shared" si="1"/>
+        <v>14.484404229024584</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7692307692307696E-2</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.5">
@@ -6082,9 +6045,8 @@
       <c r="D41" s="3">
         <v>10.1</v>
       </c>
-      <c r="E41" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E41" s="2">
+        <v>1.8</v>
       </c>
       <c r="F41" s="7">
         <v>1.1627906976744187</v>
@@ -6099,13 +6061,13 @@
         <f t="shared" si="0"/>
         <v>104.93139243341608</v>
       </c>
-      <c r="J41" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K41" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J41" s="8">
+        <f t="shared" si="1"/>
+        <v>18.700644196054352</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="2"/>
+        <v>0.17821782178217824</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="13.5">
@@ -6121,9 +6083,8 @@
       <c r="D42" s="3">
         <v>16.3</v>
       </c>
-      <c r="E42" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E42" s="2">
+        <v>3</v>
       </c>
       <c r="F42" s="7">
         <v>1.1627906976744187</v>
@@ -6138,13 +6099,13 @@
         <f t="shared" si="0"/>
         <v>84.645757104939477</v>
       </c>
-      <c r="J42" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K42" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J42" s="8">
+        <f t="shared" si="1"/>
+        <v>15.578973700295608</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18404907975460122</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="13.5">
@@ -6160,9 +6121,8 @@
       <c r="D43" s="3">
         <v>60.2</v>
       </c>
-      <c r="E43" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E43" s="2">
+        <v>4.7</v>
       </c>
       <c r="F43" s="7">
         <v>1.0638297872340425</v>
@@ -6177,13 +6137,13 @@
         <f t="shared" si="0"/>
         <v>83.618879646477708</v>
       </c>
-      <c r="J43" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K43" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J43" s="8">
+        <f t="shared" si="1"/>
+        <v>6.5283842913362999</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="2"/>
+        <v>7.807308970099669E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="13.5">
@@ -6199,9 +6159,8 @@
       <c r="D44" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="E44" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E44" s="2">
+        <v>1.5</v>
       </c>
       <c r="F44" s="7">
         <v>1.1627906976744187</v>
@@ -6216,13 +6175,13 @@
         <f t="shared" si="0"/>
         <v>106.42676071708736</v>
       </c>
-      <c r="J44" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K44" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J44" s="8">
+        <f t="shared" si="1"/>
+        <v>7.8254971115505407</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3529411764705871E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="13.5">
@@ -6265,9 +6224,8 @@
       <c r="D46" s="3">
         <v>5.9</v>
       </c>
-      <c r="E46" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E46" s="2">
+        <v>0.3</v>
       </c>
       <c r="F46" s="7">
         <v>1.1494252873563218</v>
@@ -6282,13 +6240,13 @@
         <f t="shared" si="0"/>
         <v>86.473952088469247</v>
       </c>
-      <c r="J46" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K46" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J46" s="8">
+        <f t="shared" si="1"/>
+        <v>4.3969806146679273</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="2"/>
+        <v>5.084745762711864E-2</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="13.5">
@@ -6304,9 +6262,8 @@
       <c r="D47" s="3">
         <v>4.2</v>
       </c>
-      <c r="E47" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E47" s="2">
+        <v>0.3</v>
       </c>
       <c r="F47" s="7">
         <v>1.1494252873563218</v>
@@ -6321,13 +6278,13 @@
         <f t="shared" si="0"/>
         <v>81.099675452021074</v>
       </c>
-      <c r="J47" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K47" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J47" s="8">
+        <f t="shared" si="1"/>
+        <v>5.7928339608586477</v>
+      </c>
+      <c r="K47" s="6">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5">
@@ -6343,9 +6300,8 @@
       <c r="D48" s="3">
         <v>40</v>
       </c>
-      <c r="E48" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E48" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F48" s="7">
         <v>1.1363636363636365</v>
@@ -6360,13 +6316,13 @@
         <f t="shared" si="0"/>
         <v>707.279391864064</v>
       </c>
-      <c r="J48" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K48" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J48" s="8">
+        <f t="shared" si="1"/>
+        <v>19.450183276261757</v>
+      </c>
+      <c r="K48" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7499999999999997E-2</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="13.5">
@@ -6382,9 +6338,8 @@
       <c r="D49" s="3">
         <v>36</v>
       </c>
-      <c r="E49" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E49" s="2">
+        <v>1.8</v>
       </c>
       <c r="F49" s="7">
         <v>1.1363636363636365</v>
@@ -6399,13 +6354,13 @@
         <f t="shared" si="0"/>
         <v>470.14495527318201</v>
       </c>
-      <c r="J49" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K49" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J49" s="8">
+        <f t="shared" si="1"/>
+        <v>23.507247763659102</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="13.5">
@@ -6421,9 +6376,8 @@
       <c r="D50" s="3">
         <v>15</v>
       </c>
-      <c r="E50" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E50" s="2">
+        <v>7.3</v>
       </c>
       <c r="F50" s="7">
         <v>1.1363636363636365</v>
@@ -6438,13 +6392,13 @@
         <f t="shared" si="0"/>
         <v>127.67847219240592</v>
       </c>
-      <c r="J50" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K50" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J50" s="8">
+        <f t="shared" si="1"/>
+        <v>62.136856466970897</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4866666666666668</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="13.5">
@@ -6460,9 +6414,8 @@
       <c r="D51" s="3">
         <v>22</v>
       </c>
-      <c r="E51" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E51" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F51" s="7">
         <v>1.1363636363636365</v>
@@ -6477,13 +6430,13 @@
         <f t="shared" si="0"/>
         <v>91.199723633001412</v>
       </c>
-      <c r="J51" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K51" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J51" s="8">
+        <f t="shared" si="1"/>
+        <v>9.5345165616319658</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10454545454545455</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5">
@@ -6499,9 +6452,8 @@
       <c r="D52" s="3">
         <v>36</v>
       </c>
-      <c r="E52" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E52" s="2">
+        <v>1.8</v>
       </c>
       <c r="F52" s="7">
         <v>1.0526315789473684</v>
@@ -6516,13 +6468,13 @@
         <f t="shared" si="0"/>
         <v>56.493497389661272</v>
       </c>
-      <c r="J52" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K52" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J52" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8246748694830637</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="13.5">
@@ -6538,9 +6490,8 @@
       <c r="D53" s="3">
         <v>16</v>
       </c>
-      <c r="E53" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E53" s="2">
+        <v>3</v>
       </c>
       <c r="F53" s="7">
         <v>1.1111111111111112</v>
@@ -6555,13 +6506,13 @@
         <f t="shared" si="0"/>
         <v>264.781178129767</v>
       </c>
-      <c r="J53" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K53" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J53" s="8">
+        <f t="shared" si="1"/>
+        <v>49.646470899331305</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="2"/>
+        <v>0.18749999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13.5">
@@ -6577,9 +6528,8 @@
       <c r="D54" s="3">
         <v>16.899999999999999</v>
       </c>
-      <c r="E54" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E54" s="2">
+        <v>3</v>
       </c>
       <c r="F54" s="7">
         <v>1.1111111111111112</v>
@@ -6594,13 +6544,13 @@
         <f t="shared" si="0"/>
         <v>223.62999523207139</v>
       </c>
-      <c r="J54" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K54" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J54" s="8">
+        <f t="shared" si="1"/>
+        <v>39.697632289716815</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="2"/>
+        <v>0.17751479289940827</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.5">
@@ -6643,9 +6593,8 @@
       <c r="D56" s="3">
         <v>10</v>
       </c>
-      <c r="E56" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E56" s="2">
+        <v>2.9</v>
       </c>
       <c r="F56" s="7">
         <v>1.1111111111111112</v>
@@ -6660,13 +6609,13 @@
         <f t="shared" si="0"/>
         <v>64.96566057827873</v>
       </c>
-      <c r="J56" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J56" s="8">
+        <f t="shared" si="1"/>
+        <v>18.840041567700833</v>
+      </c>
+      <c r="K56" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.5">
@@ -6709,9 +6658,8 @@
       <c r="D58" s="13">
         <v>17</v>
       </c>
-      <c r="E58" s="2" t="e">
-        <f>SQRT(#REF!)</f>
-        <v>#REF!</v>
+      <c r="E58" s="2">
+        <v>10</v>
       </c>
       <c r="F58" s="7">
         <v>1.04</v>
@@ -6726,13 +6674,13 @@
         <f t="shared" si="0"/>
         <v>34.007999999999996</v>
       </c>
-      <c r="J58" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K58" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#REF!</v>
+      <c r="J58" s="8">
+        <f t="shared" si="1"/>
+        <v>20.00470588235294</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="2"/>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.5">
@@ -6752,8 +6700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
@@ -6794,10 +6742,10 @@
         <v>0.11069326989478628</v>
       </c>
       <c r="D2" s="2">
-        <v>1040.5916752665978</v>
+        <v>53060.703277309156</v>
       </c>
       <c r="E2" s="2">
-        <v>24.425419566724909</v>
+        <v>4604.4411934855052</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6811,10 +6759,10 @@
         <v>0.109</v>
       </c>
       <c r="D3" s="2">
-        <v>181391.19617992858</v>
+        <v>71177.905381003977</v>
       </c>
       <c r="E3" s="2">
-        <v>2697.8970284400239</v>
+        <v>4235.2148790176961</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6828,10 +6776,10 @@
         <v>0.12184005909387931</v>
       </c>
       <c r="D4" s="2">
-        <v>289.98778998778994</v>
+        <v>13230.238929057508</v>
       </c>
       <c r="E4" s="2">
-        <v>12.146251919325721</v>
+        <v>1624.7661842702207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6845,10 +6793,10 @@
         <v>0.18243903091169938</v>
       </c>
       <c r="D5" s="2">
-        <v>4.4726930320150666</v>
+        <v>549.44831569353391</v>
       </c>
       <c r="E5" s="2">
-        <v>1.4511332398702863</v>
+        <v>28.91833240492284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6862,10 +6810,10 @@
         <v>0.22361797781037193</v>
       </c>
       <c r="D6" s="2">
-        <v>45.015371102327641</v>
+        <v>2299.5202473395966</v>
       </c>
       <c r="E6" s="2">
-        <v>4.0588993216254643</v>
+        <v>163.58375743269488</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6879,10 +6827,10 @@
         <v>0.21651789764358972</v>
       </c>
       <c r="D7" s="2">
-        <v>1639.6103896103898</v>
+        <v>41160.614328566735</v>
       </c>
       <c r="E7" s="2">
-        <v>48.641136481048122</v>
+        <v>452.81203881811587</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6896,10 +6844,10 @@
         <v>0.218</v>
       </c>
       <c r="D8" s="2">
-        <v>7495.5908289241634</v>
+        <v>5882.5396825396829</v>
       </c>
       <c r="E8" s="2">
-        <v>234.6960526553691</v>
+        <v>100.34920634920634</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6913,10 +6861,10 @@
         <v>0.22808989455914089</v>
       </c>
       <c r="D9" s="2">
-        <v>478.17770822465667</v>
+        <v>11102.841354784179</v>
       </c>
       <c r="E9" s="2">
-        <v>12.895493804722074</v>
+        <v>201.86984281425782</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6930,10 +6878,10 @@
         <v>0.2464893506827425</v>
       </c>
       <c r="D10" s="2">
-        <v>96.021947873799732</v>
+        <v>4323.9568755797391</v>
       </c>
       <c r="E10" s="2">
-        <v>5.7384089611390641</v>
+        <v>115.8202734530287</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6947,10 +6895,10 @@
         <v>0.26983328186122629</v>
       </c>
       <c r="D11" s="2">
-        <v>23.148148148148152</v>
+        <v>1523.9895475243468</v>
       </c>
       <c r="E11" s="2">
-        <v>2.8175028678249285</v>
+        <v>11.288811463143311</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6964,10 +6912,10 @@
         <v>0.29829180344085893</v>
       </c>
       <c r="D12" s="2">
-        <v>7.0301783264746227</v>
+        <v>605.38344692678356</v>
       </c>
       <c r="E12" s="2">
-        <v>1.552706642341807</v>
+        <v>29.530899850087014</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6981,10 +6929,10 @@
         <v>0.32908357601071497</v>
       </c>
       <c r="D13" s="2">
-        <v>2.1806226516371439</v>
+        <v>225.77645755025671</v>
       </c>
       <c r="E13" s="2">
-        <v>0.85531057326771076</v>
+        <v>60.785969340453725</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6998,10 +6946,10 @@
         <v>0.36274646793594006</v>
       </c>
       <c r="D14" s="2">
-        <v>0.99265435775263033</v>
+        <v>120.53566892083519</v>
       </c>
       <c r="E14" s="2">
-        <v>0.57310926066073631</v>
+        <v>20.089278153472531</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7015,10 +6963,10 @@
         <v>0.32582971012478285</v>
       </c>
       <c r="D15" s="2">
-        <v>234.1039575082128</v>
+        <v>7845.5380114582067</v>
       </c>
       <c r="E15" s="2">
-        <v>8.4779105778048418</v>
+        <v>385.8461317110594</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7032,10 +6980,10 @@
         <v>0.32386725675807365</v>
       </c>
       <c r="D16" s="2">
-        <v>924.90252064720141</v>
+        <v>14985.931981683396</v>
       </c>
       <c r="E16" s="2">
-        <v>16.851262165807121</v>
+        <v>273.60207767388766</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7049,10 +6997,10 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>1051.7408123791104</v>
+        <v>1234.3230174081239</v>
       </c>
       <c r="E17" s="2">
-        <v>16.80903740700694</v>
+        <v>86.702127659574487</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7065,10 +7013,12 @@
       <c r="C18" s="6">
         <v>0.33477305745833252</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3">
@@ -7081,10 +7031,10 @@
         <v>0.34973847372000699</v>
       </c>
       <c r="D19" s="2">
-        <v>24.038461538461537</v>
+        <v>737.61509073506477</v>
       </c>
       <c r="E19" s="2">
-        <v>2.6709401709401708</v>
+        <v>36.425436579509373</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7098,10 +7048,10 @@
         <v>0.36832865758721517</v>
       </c>
       <c r="D20" s="2">
-        <v>29.009377967711302</v>
+        <v>1311.9986937982035</v>
       </c>
       <c r="E20" s="2">
-        <v>2.9341346054850996</v>
+        <v>30.199458425022588</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7115,10 +7065,10 @@
         <v>0.39177544588705399</v>
       </c>
       <c r="D21" s="2">
-        <v>20.291256446319736</v>
+        <v>1199.2758655234204</v>
       </c>
       <c r="E21" s="2">
-        <v>2.4383668801414142</v>
+        <v>30.306610320086431</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7132,10 +7082,10 @@
         <v>0.41759909003732276</v>
       </c>
       <c r="D22" s="2">
-        <v>8.9369432723863103</v>
+        <v>649.18549161302462</v>
       </c>
       <c r="E22" s="2">
-        <v>1.618225653010323</v>
+        <v>15.963577662615362</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7149,10 +7099,10 @@
         <v>0.44616140577149882</v>
       </c>
       <c r="D23" s="2">
-        <v>2.5638771683075476</v>
+        <v>219.80618473908842</v>
       </c>
       <c r="E23" s="2">
-        <v>0.86674867895857</v>
+        <v>31.40088353415549</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7166,10 +7116,10 @@
         <v>0.43667048184201473</v>
       </c>
       <c r="D24" s="2">
-        <v>99.38131631253323</v>
+        <v>3771.0850021113624</v>
       </c>
       <c r="E24" s="2">
-        <v>5.2746126036272143</v>
+        <v>212.45549307669648</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7183,10 +7133,10 @@
         <v>0.43188534077043261</v>
       </c>
       <c r="D25" s="2">
-        <v>522.23328355732531</v>
+        <v>13041.667312539106</v>
       </c>
       <c r="E25" s="2">
-        <v>12.017276471235421</v>
+        <v>328.02711005856906</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7200,10 +7150,10 @@
         <v>0.43146721383800929</v>
       </c>
       <c r="D26" s="2">
-        <v>296.99684751949565</v>
+        <v>3632.0145254632293</v>
       </c>
       <c r="E26" s="2">
-        <v>9.0625350412996735</v>
+        <v>287.44993916608428</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7217,10 +7167,10 @@
         <v>0.43506536697007098</v>
       </c>
       <c r="D27" s="2">
-        <v>1194.21394931599</v>
+        <v>1870.4200683597801</v>
       </c>
       <c r="E27" s="2">
-        <v>17.250475830476677</v>
+        <v>22.441138013706283</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7234,10 +7184,10 @@
         <v>0.44309141269042895</v>
       </c>
       <c r="D28" s="2">
-        <v>31.3174050107848</v>
+        <v>369.35161797255063</v>
       </c>
       <c r="E28" s="2">
-        <v>2.942840088185493</v>
+        <v>58.704892922789519</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7251,10 +7201,10 @@
         <v>0.45623971631770233</v>
       </c>
       <c r="D29" s="2">
-        <v>30.142138156075436</v>
+        <v>693.11801579504277</v>
       </c>
       <c r="E29" s="2">
-        <v>2.887093221865646</v>
+        <v>38.153285273121625</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7267,10 +7217,12 @@
       <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3">
@@ -7283,10 +7235,10 @@
         <v>0.49272653618550721</v>
       </c>
       <c r="D31" s="2">
-        <v>1.434308663224326</v>
+        <v>65.060885050784762</v>
       </c>
       <c r="E31" s="2">
-        <v>0.62598362087203774</v>
+        <v>12.392549533482812</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7300,10 +7252,10 @@
         <v>0.51435757590665054</v>
       </c>
       <c r="D32" s="2">
-        <v>2.1856132011037346</v>
+        <v>121.8420779610819</v>
       </c>
       <c r="E32" s="2">
-        <v>0.77273095777564416</v>
+        <v>11.422694808851427</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7317,10 +7269,10 @@
         <v>0.53945835340385007</v>
       </c>
       <c r="D33" s="2">
-        <v>0.68300412534491717</v>
+        <v>45.125708073231728</v>
       </c>
       <c r="E33" s="2">
-        <v>0.43196973747621498</v>
+        <v>49.638278880554907</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7334,10 +7286,10 @@
         <v>0.54113245597020643</v>
       </c>
       <c r="D34" s="2">
-        <v>57.010582010582013</v>
+        <v>1731.240032712386</v>
       </c>
       <c r="E34" s="2">
-        <v>3.8835762581754492</v>
+        <v>136.57113947151072</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7351,10 +7303,10 @@
         <v>0.53869425710269536</v>
       </c>
       <c r="D35" s="2">
-        <v>95.899470899470884</v>
+        <v>1893.7329797040327</v>
       </c>
       <c r="E35" s="2">
-        <v>5.0368869747777172</v>
+        <v>52.240909784938829</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7368,10 +7320,10 @@
         <v>0.54012695627595519</v>
       </c>
       <c r="D36" s="2">
-        <v>41.93121693121693</v>
+        <v>398.8338707103772</v>
       </c>
       <c r="E36" s="2">
-        <v>3.330602728046077</v>
+        <v>21.388567198979221</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7385,10 +7337,10 @@
         <v>0.54370092037490203</v>
       </c>
       <c r="D37" s="2">
-        <v>155.31660692951016</v>
+        <v>304.00481569349358</v>
       </c>
       <c r="E37" s="2">
-        <v>6.0920185347584059</v>
+        <v>4.6769971645152859</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7402,10 +7354,10 @@
         <v>0.55141360694549746</v>
       </c>
       <c r="D38" s="2">
-        <v>33.06878306878307</v>
+        <v>288.70436423005356</v>
       </c>
       <c r="E38" s="2">
-        <v>2.9577618749997221</v>
+        <v>16.167444396882999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7419,10 +7371,10 @@
         <v>0.65229693038596093</v>
       </c>
       <c r="D39" s="2">
-        <v>7.3643410852713176</v>
+        <v>248.26708636259417</v>
       </c>
       <c r="E39" s="2">
-        <v>1.3794674744226498</v>
+        <v>17.422251674568013</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7436,10 +7388,10 @@
         <v>0.64792489969455835</v>
       </c>
       <c r="D40" s="2">
-        <v>10.077519379844961</v>
+        <v>251.06300663642611</v>
       </c>
       <c r="E40" s="2">
-        <v>1.6136945732295604</v>
+        <v>14.484404229024584</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7453,10 +7405,10 @@
         <v>0.64649758477473851</v>
       </c>
       <c r="D41" s="2">
-        <v>6.5245478036175708</v>
+        <v>104.93139243341608</v>
       </c>
       <c r="E41" s="2">
-        <v>1.298433542780477</v>
+        <v>18.700644196054352</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -7470,10 +7422,10 @@
         <v>0.64842732823347293</v>
       </c>
       <c r="D42" s="2">
-        <v>10.529715762273902</v>
+        <v>84.645757104939477</v>
       </c>
       <c r="E42" s="2">
-        <v>1.649501981240789</v>
+        <v>15.578973700295608</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7487,10 +7439,10 @@
         <v>0.65283842913362999</v>
       </c>
       <c r="D43" s="2">
-        <v>35.579196217494086</v>
+        <v>83.618879646477708</v>
       </c>
       <c r="E43" s="2">
-        <v>2.9001995617932148</v>
+        <v>6.5283842913362999</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7504,10 +7456,10 @@
         <v>0.66046725884028501</v>
       </c>
       <c r="D44" s="2">
-        <v>13.178294573643411</v>
+        <v>106.42676071708736</v>
       </c>
       <c r="E44" s="2">
-        <v>1.8453303432927262</v>
+        <v>7.8254971115505407</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7520,10 +7472,12 @@
       <c r="C45" s="6">
         <v>0.67066683233927715</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2"/>
+      <c r="D45" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
@@ -7536,10 +7490,10 @@
         <v>0.68408945820278377</v>
       </c>
       <c r="D46" s="2">
-        <v>3.7675606641123882</v>
+        <v>86.473952088469247</v>
       </c>
       <c r="E46" s="2">
-        <v>0.98098923982996267</v>
+        <v>4.3969806146679273</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7553,10 +7507,10 @@
         <v>0.70028589245122541</v>
       </c>
       <c r="D47" s="2">
-        <v>2.6819923371647509</v>
+        <v>81.099675452021074</v>
       </c>
       <c r="E47" s="2">
-        <v>0.82768080439436265</v>
+        <v>5.7928339608586477</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7570,10 +7524,10 @@
         <v>0.7572805224299487</v>
       </c>
       <c r="D48" s="2">
-        <v>24.757377698554169</v>
+        <v>707.279391864064</v>
       </c>
       <c r="E48" s="2">
-        <v>2.4757377698554168</v>
+        <v>19.450183276261757</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7587,10 +7541,10 @@
         <v>0.75444431494089825</v>
       </c>
       <c r="D49" s="2">
-        <v>22.281639928698752</v>
+        <v>470.14495527318201</v>
       </c>
       <c r="E49" s="2">
-        <v>2.348691072614661</v>
+        <v>23.507247763659102</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7604,10 +7558,10 @@
         <v>0.75426490834861581</v>
       </c>
       <c r="D50" s="2">
-        <v>9.2840166369578139</v>
+        <v>127.67847219240592</v>
       </c>
       <c r="E50" s="2">
-        <v>1.516073568270436</v>
+        <v>62.136856466970897</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7621,10 +7575,10 @@
         <v>0.75628887838736603</v>
       </c>
       <c r="D51" s="2">
-        <v>13.616557734204795</v>
+        <v>91.199723633001412</v>
       </c>
       <c r="E51" s="2">
-        <v>1.8360562703247334</v>
+        <v>9.5345165616319658</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7638,10 +7592,10 @@
         <v>0.76030831903585805</v>
       </c>
       <c r="D52" s="2">
-        <v>20.639834881320947</v>
+        <v>56.493497389661272</v>
       </c>
       <c r="E52" s="2">
-        <v>2.1756296251588432</v>
+        <v>2.8246748694830637</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7655,10 +7609,10 @@
         <v>0.97500051282037792</v>
       </c>
       <c r="D53" s="2">
-        <v>9.6828854998789637</v>
+        <v>264.781178129767</v>
       </c>
       <c r="E53" s="2">
-        <v>1.5309986251117789</v>
+        <v>49.646470899331305</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7672,10 +7626,10 @@
         <v>0.97251118245498847</v>
       </c>
       <c r="D54" s="2">
-        <v>10.227547809247156</v>
+        <v>223.62999523207139</v>
       </c>
       <c r="E54" s="2">
-        <v>1.5734688937303316</v>
+        <v>39.697632289716815</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7688,10 +7642,12 @@
       <c r="C55" s="6">
         <v>0.97173504619314821</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
@@ -7704,10 +7660,10 @@
         <v>0.97280881986133327</v>
       </c>
       <c r="D56" s="2">
-        <v>6.0518034374243523</v>
+        <v>64.96566057827873</v>
       </c>
       <c r="E56" s="2">
-        <v>1.2103606874848705</v>
+        <v>18.840041567700833</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -7720,10 +7676,12 @@
       <c r="C57" s="14">
         <v>0.97594774450274746</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3">
@@ -7736,10 +7694,10 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="D58" s="2">
-        <v>9.6296296296296298</v>
+        <v>34.007999999999996</v>
       </c>
       <c r="E58" s="2">
-        <v>1.4771177562986393</v>
+        <v>20.00470588235294</v>
       </c>
     </row>
   </sheetData>
